--- a/static/pricelist/SEK/safespring-price-list_2020-06-23.xlsx
+++ b/static/pricelist/SEK/safespring-price-list_2020-06-23.xlsx
@@ -8,9 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/safespring/Documents/github/web/static/pricelist/SEK/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B17B2C7-807F-5B41-9178-B1273A464CC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D70DA446-94EA-5244-9005-6B676BFE39E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="qDnfgcogDB3vp02cOnvDh5vOsAGN8qN7+mEtNo0FK8FS3mbNAne36px+yxtgXk4IxMop/G8NOe8K23fRkvkPOw==" workbookSaltValue="klFxvELce0G+dzZC8d488w==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340" tabRatio="530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="530" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EUR - Safespring priser 2020" sheetId="8" state="hidden" r:id="rId1"/>
@@ -4179,16 +4180,16 @@
       <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="37" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="36" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -4199,76 +4200,20 @@
       <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="6" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" indent="2" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4327,28 +4272,108 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="37" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="4" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="6" fillId="4" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" indent="2" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="4" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="36" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="37" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="8" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4388,30 +4413,6 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="8" fontId="6" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="37" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="1"/>
       <protection hidden="1"/>
     </xf>
@@ -4423,12 +4424,241 @@
     <cellStyle name="Tusental" xfId="4" builtinId="3"/>
     <cellStyle name="Valuta" xfId="2" builtinId="4"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="83">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
         <i val="0"/>
         <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="5"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color theme="5"/>
       </font>
     </dxf>
     <dxf>
@@ -4596,229 +4826,7 @@
       <font>
         <b/>
         <i val="0"/>
-        <strike val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
         <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="5"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color theme="5"/>
       </font>
     </dxf>
     <dxf>
@@ -5526,8 +5534,8 @@
     </row>
     <row r="4" spans="1:29" s="173" customFormat="1" ht="25.5" customHeight="1">
       <c r="A4" s="169"/>
-      <c r="B4" s="569"/>
-      <c r="C4" s="569"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="609"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="169"/>
@@ -8016,12 +8024,12 @@
       <c r="E81" s="144" t="s">
         <v>221</v>
       </c>
-      <c r="F81" s="572" t="s">
+      <c r="F81" s="594" t="s">
         <v>231</v>
       </c>
-      <c r="G81" s="572"/>
-      <c r="H81" s="573"/>
-      <c r="I81" s="573"/>
+      <c r="G81" s="594"/>
+      <c r="H81" s="592"/>
+      <c r="I81" s="592"/>
       <c r="J81" s="292" t="s">
         <v>24</v>
       </c>
@@ -8049,13 +8057,13 @@
         <f>F82/720</f>
         <v>1.5786333333333332E-4</v>
       </c>
-      <c r="F82" s="567">
+      <c r="F82" s="607">
         <f>VOLUME_large_EUR</f>
         <v>0.11366159999999999</v>
       </c>
-      <c r="G82" s="567"/>
-      <c r="H82" s="568"/>
-      <c r="I82" s="568"/>
+      <c r="G82" s="607"/>
+      <c r="H82" s="608"/>
+      <c r="I82" s="608"/>
       <c r="J82" s="298"/>
       <c r="K82" s="299" t="s">
         <v>26</v>
@@ -8081,13 +8089,13 @@
         <f>F83/720</f>
         <v>4.7358999999999997E-4</v>
       </c>
-      <c r="F83" s="576">
+      <c r="F83" s="601">
         <f>VOLUME_fast_EUR</f>
         <v>0.34098479999999998</v>
       </c>
-      <c r="G83" s="576"/>
-      <c r="H83" s="577"/>
-      <c r="I83" s="577"/>
+      <c r="G83" s="601"/>
+      <c r="H83" s="602"/>
+      <c r="I83" s="602"/>
       <c r="J83" s="302"/>
       <c r="K83" s="303" t="s">
         <v>26</v>
@@ -8222,13 +8230,13 @@
       <c r="P90" s="196"/>
     </row>
     <row r="91" spans="2:25" s="192" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B91" s="578" t="s">
+      <c r="B91" s="603" t="s">
         <v>232</v>
       </c>
-      <c r="C91" s="578"/>
-      <c r="D91" s="578"/>
-      <c r="E91" s="578"/>
-      <c r="F91" s="578"/>
+      <c r="C91" s="603"/>
+      <c r="D91" s="603"/>
+      <c r="E91" s="603"/>
+      <c r="F91" s="603"/>
       <c r="H91" s="193"/>
       <c r="J91" s="194"/>
       <c r="K91" s="194"/>
@@ -8238,13 +8246,13 @@
       <c r="P91" s="204"/>
     </row>
     <row r="92" spans="2:25" s="319" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B92" s="579" t="s">
+      <c r="B92" s="604" t="s">
         <v>299</v>
       </c>
-      <c r="C92" s="579"/>
-      <c r="D92" s="579"/>
-      <c r="E92" s="579"/>
-      <c r="F92" s="579"/>
+      <c r="C92" s="604"/>
+      <c r="D92" s="604"/>
+      <c r="E92" s="604"/>
+      <c r="F92" s="604"/>
       <c r="G92" s="313"/>
       <c r="H92" s="314"/>
       <c r="I92" s="313"/>
@@ -8303,16 +8311,16 @@
       <c r="C95" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="D95" s="572" t="s">
+      <c r="D95" s="594" t="s">
         <v>234</v>
       </c>
-      <c r="E95" s="572"/>
-      <c r="F95" s="572"/>
-      <c r="G95" s="572"/>
-      <c r="H95" s="572"/>
-      <c r="I95" s="572"/>
-      <c r="J95" s="572"/>
-      <c r="K95" s="572"/>
+      <c r="E95" s="594"/>
+      <c r="F95" s="594"/>
+      <c r="G95" s="594"/>
+      <c r="H95" s="594"/>
+      <c r="I95" s="594"/>
+      <c r="J95" s="594"/>
+      <c r="K95" s="594"/>
       <c r="L95" s="293"/>
       <c r="M95" s="290"/>
       <c r="N95" s="290"/>
@@ -8328,17 +8336,17 @@
       <c r="C96" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="D96" s="574">
+      <c r="D96" s="605">
         <f>S3_storage.50_EUR</f>
         <v>33.151299999999999</v>
       </c>
-      <c r="E96" s="574"/>
-      <c r="F96" s="575"/>
-      <c r="G96" s="575"/>
-      <c r="H96" s="575"/>
-      <c r="I96" s="575"/>
-      <c r="J96" s="575"/>
-      <c r="K96" s="575"/>
+      <c r="E96" s="605"/>
+      <c r="F96" s="606"/>
+      <c r="G96" s="606"/>
+      <c r="H96" s="606"/>
+      <c r="I96" s="606"/>
+      <c r="J96" s="606"/>
+      <c r="K96" s="606"/>
       <c r="L96" s="320"/>
       <c r="M96" s="321"/>
       <c r="N96" s="321"/>
@@ -8354,17 +8362,17 @@
       <c r="C97" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="D97" s="582">
+      <c r="D97" s="590">
         <f>S3_storage.100_EUR</f>
         <v>25.57386</v>
       </c>
-      <c r="E97" s="582"/>
-      <c r="F97" s="583"/>
-      <c r="G97" s="583"/>
-      <c r="H97" s="583"/>
-      <c r="I97" s="583"/>
-      <c r="J97" s="583"/>
-      <c r="K97" s="583"/>
+      <c r="E97" s="590"/>
+      <c r="F97" s="591"/>
+      <c r="G97" s="591"/>
+      <c r="H97" s="591"/>
+      <c r="I97" s="591"/>
+      <c r="J97" s="591"/>
+      <c r="K97" s="591"/>
       <c r="L97" s="322"/>
       <c r="M97" s="323"/>
       <c r="N97" s="323"/>
@@ -8380,17 +8388,17 @@
       <c r="C98" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D98" s="580">
+      <c r="D98" s="599">
         <f>S3_storage.500_EUR</f>
         <v>18.9436</v>
       </c>
-      <c r="E98" s="580"/>
-      <c r="F98" s="581"/>
-      <c r="G98" s="581"/>
-      <c r="H98" s="581"/>
-      <c r="I98" s="581"/>
-      <c r="J98" s="581"/>
-      <c r="K98" s="581"/>
+      <c r="E98" s="599"/>
+      <c r="F98" s="600"/>
+      <c r="G98" s="600"/>
+      <c r="H98" s="600"/>
+      <c r="I98" s="600"/>
+      <c r="J98" s="600"/>
+      <c r="K98" s="600"/>
       <c r="L98" s="324"/>
       <c r="M98" s="325"/>
       <c r="N98" s="325"/>
@@ -8406,17 +8414,17 @@
       <c r="C99" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="D99" s="582">
+      <c r="D99" s="590">
         <f>S3_storage.1000_EUR</f>
         <v>17.522829999999999</v>
       </c>
-      <c r="E99" s="582"/>
-      <c r="F99" s="583"/>
-      <c r="G99" s="583"/>
-      <c r="H99" s="583"/>
-      <c r="I99" s="583"/>
-      <c r="J99" s="583"/>
-      <c r="K99" s="583"/>
+      <c r="E99" s="590"/>
+      <c r="F99" s="591"/>
+      <c r="G99" s="591"/>
+      <c r="H99" s="591"/>
+      <c r="I99" s="591"/>
+      <c r="J99" s="591"/>
+      <c r="K99" s="591"/>
       <c r="L99" s="322"/>
       <c r="M99" s="323"/>
       <c r="N99" s="323"/>
@@ -8432,17 +8440,17 @@
       <c r="C100" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="584" t="str">
+      <c r="D100" s="593" t="str">
         <f>S3_storage.quote_EUR</f>
         <v>Ask for quote</v>
       </c>
-      <c r="E100" s="584"/>
-      <c r="F100" s="584"/>
-      <c r="G100" s="584"/>
-      <c r="H100" s="584"/>
-      <c r="I100" s="584"/>
-      <c r="J100" s="584"/>
-      <c r="K100" s="584"/>
+      <c r="E100" s="593"/>
+      <c r="F100" s="593"/>
+      <c r="G100" s="593"/>
+      <c r="H100" s="593"/>
+      <c r="I100" s="593"/>
+      <c r="J100" s="593"/>
+      <c r="K100" s="593"/>
       <c r="L100" s="326"/>
       <c r="M100" s="327"/>
       <c r="N100" s="327"/>
@@ -8503,10 +8511,10 @@
       <c r="E103" s="143" t="s">
         <v>221</v>
       </c>
-      <c r="F103" s="572" t="s">
+      <c r="F103" s="594" t="s">
         <v>235</v>
       </c>
-      <c r="G103" s="572"/>
+      <c r="G103" s="594"/>
       <c r="H103" s="292" t="s">
         <v>233</v>
       </c>
@@ -8533,11 +8541,11 @@
         <f t="array" ref="E104">_xlfn.IFS(H104&lt;1001,F104/720,H104&gt;1000,D100)</f>
         <v>4.6043472222222222E-2</v>
       </c>
-      <c r="F104" s="585" cm="1">
+      <c r="F104" s="595" cm="1">
         <f t="array" ref="F104">_xlfn.IFS(H104&lt;51,D96,H104&lt;101,D97,H104&lt;501,D98,H104&lt;1001,D99,H104&gt;1000,D100)</f>
         <v>33.151299999999999</v>
       </c>
-      <c r="G104" s="586"/>
+      <c r="G104" s="596"/>
       <c r="H104" s="330">
         <v>0</v>
       </c>
@@ -8685,13 +8693,13 @@
       <c r="P111" s="196"/>
     </row>
     <row r="112" spans="2:24" s="192" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B112" s="587" t="s">
+      <c r="B112" s="597" t="s">
         <v>300</v>
       </c>
-      <c r="C112" s="587"/>
-      <c r="D112" s="587"/>
-      <c r="E112" s="587"/>
-      <c r="F112" s="587"/>
+      <c r="C112" s="597"/>
+      <c r="D112" s="597"/>
+      <c r="E112" s="597"/>
+      <c r="F112" s="597"/>
       <c r="H112" s="193"/>
       <c r="J112" s="194"/>
       <c r="K112" s="194"/>
@@ -8777,23 +8785,23 @@
       <c r="B116" s="518" t="s">
         <v>220</v>
       </c>
-      <c r="C116" s="588" t="s">
+      <c r="C116" s="598" t="s">
         <v>242</v>
       </c>
-      <c r="D116" s="588"/>
+      <c r="D116" s="598"/>
       <c r="E116" s="143"/>
-      <c r="F116" s="572" t="s">
+      <c r="F116" s="594" t="s">
         <v>241</v>
       </c>
-      <c r="G116" s="572"/>
+      <c r="G116" s="594"/>
       <c r="H116" s="292" t="s">
         <v>30</v>
       </c>
       <c r="I116" s="290"/>
-      <c r="J116" s="573" t="s">
+      <c r="J116" s="592" t="s">
         <v>240</v>
       </c>
-      <c r="K116" s="573"/>
+      <c r="K116" s="592"/>
       <c r="L116" s="291"/>
       <c r="M116" s="290"/>
       <c r="N116" s="293" t="s">
@@ -8804,29 +8812,29 @@
     </row>
     <row r="117" spans="1:35" ht="25.5" customHeight="1">
       <c r="A117" s="341"/>
-      <c r="B117" s="590" t="s">
+      <c r="B117" s="576" t="s">
         <v>106</v>
       </c>
-      <c r="C117" s="590"/>
+      <c r="C117" s="576"/>
       <c r="D117" s="549" t="s">
         <v>25</v>
       </c>
       <c r="E117" s="31"/>
-      <c r="F117" s="591">
+      <c r="F117" s="577">
         <f>BAAS_on.demand_EUR</f>
         <v>0.23205910000000002</v>
       </c>
-      <c r="G117" s="592"/>
+      <c r="G117" s="578"/>
       <c r="H117" s="342">
         <v>0</v>
       </c>
       <c r="I117" s="299" t="s">
         <v>26</v>
       </c>
-      <c r="J117" s="593" t="s">
+      <c r="J117" s="579" t="s">
         <v>25</v>
       </c>
-      <c r="K117" s="593"/>
+      <c r="K117" s="579"/>
       <c r="L117" s="343"/>
       <c r="M117" s="299"/>
       <c r="N117" s="469">
@@ -8838,30 +8846,30 @@
     </row>
     <row r="118" spans="1:35" ht="25.5" customHeight="1">
       <c r="A118" s="341"/>
-      <c r="B118" s="594" t="s">
+      <c r="B118" s="580" t="s">
         <v>107</v>
       </c>
-      <c r="C118" s="594"/>
+      <c r="C118" s="580"/>
       <c r="D118" s="550">
         <f>BAAS_small.fee_EUR</f>
         <v>520.94899999999996</v>
       </c>
       <c r="E118" s="34"/>
-      <c r="F118" s="595">
+      <c r="F118" s="581">
         <f>BAAS_small_EUR</f>
         <v>0.1657565</v>
       </c>
-      <c r="G118" s="596"/>
+      <c r="G118" s="582"/>
       <c r="H118" s="344">
         <v>0</v>
       </c>
       <c r="I118" s="303" t="s">
         <v>26</v>
       </c>
-      <c r="J118" s="597">
+      <c r="J118" s="583">
         <v>0.75</v>
       </c>
-      <c r="K118" s="598"/>
+      <c r="K118" s="584"/>
       <c r="L118" s="303"/>
       <c r="M118" s="303"/>
       <c r="N118" s="470">
@@ -8873,30 +8881,30 @@
     </row>
     <row r="119" spans="1:35" s="348" customFormat="1" ht="25.5" customHeight="1">
       <c r="A119" s="345"/>
-      <c r="B119" s="599" t="s">
+      <c r="B119" s="585" t="s">
         <v>108</v>
       </c>
-      <c r="C119" s="599"/>
+      <c r="C119" s="585"/>
       <c r="D119" s="551">
         <f>BAAS_large.fee_EUR</f>
         <v>899.82099999999991</v>
       </c>
       <c r="E119" s="37"/>
-      <c r="F119" s="600">
+      <c r="F119" s="586">
         <f>BAAS_large_EUR</f>
         <v>8.7140560000000006E-2</v>
       </c>
-      <c r="G119" s="601"/>
+      <c r="G119" s="587"/>
       <c r="H119" s="330">
         <v>0</v>
       </c>
       <c r="I119" s="331" t="s">
         <v>26</v>
       </c>
-      <c r="J119" s="602">
+      <c r="J119" s="588">
         <v>0.75</v>
       </c>
-      <c r="K119" s="603"/>
+      <c r="K119" s="589"/>
       <c r="L119" s="331"/>
       <c r="M119" s="331"/>
       <c r="N119" s="471">
@@ -9227,11 +9235,11 @@
       <c r="P133" s="225"/>
     </row>
     <row r="134" spans="2:27" s="192" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B134" s="589"/>
-      <c r="C134" s="589"/>
-      <c r="D134" s="589"/>
-      <c r="E134" s="589"/>
-      <c r="F134" s="589"/>
+      <c r="B134" s="572"/>
+      <c r="C134" s="572"/>
+      <c r="D134" s="572"/>
+      <c r="E134" s="572"/>
+      <c r="F134" s="572"/>
       <c r="G134" s="199"/>
       <c r="H134" s="200"/>
       <c r="I134" s="199"/>
@@ -10264,11 +10272,11 @@
       <c r="P173" s="225"/>
     </row>
     <row r="174" spans="2:23" s="192" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B174" s="589"/>
-      <c r="C174" s="589"/>
-      <c r="D174" s="589"/>
-      <c r="E174" s="589"/>
-      <c r="F174" s="589"/>
+      <c r="B174" s="572"/>
+      <c r="C174" s="572"/>
+      <c r="D174" s="572"/>
+      <c r="E174" s="572"/>
+      <c r="F174" s="572"/>
       <c r="G174" s="199"/>
       <c r="H174" s="200"/>
       <c r="I174" s="199"/>
@@ -11090,14 +11098,14 @@
     </row>
     <row r="205" spans="1:23" s="192" customFormat="1" ht="25.5" customHeight="1">
       <c r="A205" s="174"/>
-      <c r="B205" s="607" t="s">
+      <c r="B205" s="573" t="s">
         <v>256</v>
       </c>
-      <c r="C205" s="607"/>
-      <c r="D205" s="607"/>
-      <c r="E205" s="607"/>
-      <c r="F205" s="607"/>
-      <c r="G205" s="607"/>
+      <c r="C205" s="573"/>
+      <c r="D205" s="573"/>
+      <c r="E205" s="573"/>
+      <c r="F205" s="573"/>
+      <c r="G205" s="573"/>
       <c r="H205" s="177"/>
       <c r="I205" s="174"/>
       <c r="J205" s="178"/>
@@ -11110,12 +11118,12 @@
     </row>
     <row r="206" spans="1:23" s="192" customFormat="1" ht="25.5" customHeight="1">
       <c r="A206" s="174"/>
-      <c r="B206" s="607"/>
-      <c r="C206" s="607"/>
-      <c r="D206" s="607"/>
-      <c r="E206" s="607"/>
-      <c r="F206" s="607"/>
-      <c r="G206" s="607"/>
+      <c r="B206" s="573"/>
+      <c r="C206" s="573"/>
+      <c r="D206" s="573"/>
+      <c r="E206" s="573"/>
+      <c r="F206" s="573"/>
+      <c r="G206" s="573"/>
       <c r="H206" s="177"/>
       <c r="I206" s="174"/>
       <c r="J206" s="178"/>
@@ -11128,12 +11136,12 @@
     </row>
     <row r="207" spans="1:23" s="192" customFormat="1" ht="25.5" customHeight="1">
       <c r="A207" s="174"/>
-      <c r="B207" s="607"/>
-      <c r="C207" s="607"/>
-      <c r="D207" s="607"/>
-      <c r="E207" s="607"/>
-      <c r="F207" s="607"/>
-      <c r="G207" s="607"/>
+      <c r="B207" s="573"/>
+      <c r="C207" s="573"/>
+      <c r="D207" s="573"/>
+      <c r="E207" s="573"/>
+      <c r="F207" s="573"/>
+      <c r="G207" s="573"/>
       <c r="H207" s="177"/>
       <c r="I207" s="174"/>
       <c r="J207" s="178"/>
@@ -11146,13 +11154,13 @@
     </row>
     <row r="208" spans="1:23" s="192" customFormat="1" ht="25.5" customHeight="1">
       <c r="A208" s="174"/>
-      <c r="B208" s="608" t="s">
+      <c r="B208" s="574" t="s">
         <v>218</v>
       </c>
-      <c r="C208" s="608"/>
-      <c r="D208" s="608"/>
-      <c r="E208" s="608"/>
-      <c r="F208" s="608"/>
+      <c r="C208" s="574"/>
+      <c r="D208" s="574"/>
+      <c r="E208" s="574"/>
+      <c r="F208" s="574"/>
       <c r="G208" s="174"/>
       <c r="H208" s="177"/>
       <c r="I208" s="174"/>
@@ -11292,10 +11300,10 @@
     </row>
     <row r="215" spans="1:23" ht="25.5" customHeight="1">
       <c r="A215" s="404"/>
-      <c r="B215" s="609" t="s">
+      <c r="B215" s="575" t="s">
         <v>43</v>
       </c>
-      <c r="C215" s="609"/>
+      <c r="C215" s="575"/>
       <c r="D215" s="72"/>
       <c r="E215" s="73"/>
       <c r="F215" s="409"/>
@@ -11316,10 +11324,10 @@
     </row>
     <row r="216" spans="1:23" ht="25.5" customHeight="1">
       <c r="A216" s="404"/>
-      <c r="B216" s="604" t="s">
+      <c r="B216" s="567" t="s">
         <v>44</v>
       </c>
-      <c r="C216" s="604"/>
+      <c r="C216" s="567"/>
       <c r="D216" s="74"/>
       <c r="E216" s="75"/>
       <c r="F216" s="413"/>
@@ -11364,10 +11372,10 @@
     </row>
     <row r="218" spans="1:23" s="420" customFormat="1" ht="25.5" customHeight="1">
       <c r="A218" s="417"/>
-      <c r="B218" s="605" t="s">
+      <c r="B218" s="568" t="s">
         <v>46</v>
       </c>
-      <c r="C218" s="605"/>
+      <c r="C218" s="568"/>
       <c r="D218" s="35"/>
       <c r="E218" s="36"/>
       <c r="F218" s="346"/>
@@ -11397,13 +11405,13 @@
       <c r="G219" s="422"/>
       <c r="H219" s="422"/>
       <c r="I219" s="422"/>
-      <c r="J219" s="606">
+      <c r="J219" s="569">
         <f>SUM(M215:M218)</f>
         <v>0</v>
       </c>
-      <c r="K219" s="606"/>
-      <c r="L219" s="606"/>
-      <c r="M219" s="606"/>
+      <c r="K219" s="569"/>
+      <c r="L219" s="569"/>
+      <c r="M219" s="569"/>
       <c r="N219" s="423"/>
       <c r="O219" s="404"/>
       <c r="P219" s="211"/>
@@ -15146,27 +15154,34 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="65">
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="J219:M219"/>
-    <mergeCell ref="B170:G172"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="B205:G207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="B117:C117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="J118:K118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="B130:G132"/>
-    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B15:G17"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="B88:G90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="J97:K97"/>
     <mergeCell ref="D99:E99"/>
     <mergeCell ref="F99:G99"/>
     <mergeCell ref="H99:I99"/>
@@ -15183,177 +15198,170 @@
     <mergeCell ref="B113:F113"/>
     <mergeCell ref="C116:D116"/>
     <mergeCell ref="F116:G116"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="F98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="B88:G90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B15:G17"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="B117:C117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="B130:G132"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="J219:M219"/>
+    <mergeCell ref="B170:G172"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="B205:G207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B215:C215"/>
   </mergeCells>
   <conditionalFormatting sqref="M25:N35 M61:N63 M39:N39">
-    <cfRule type="cellIs" dxfId="81" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="82" priority="53" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H117 H104 J82:J83 I25:K35 I65:K68">
-    <cfRule type="cellIs" dxfId="80" priority="52" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="81" priority="52" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83">
-    <cfRule type="cellIs" dxfId="79" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="80" priority="51" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82">
-    <cfRule type="cellIs" dxfId="78" priority="50" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="79" priority="50" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104">
-    <cfRule type="cellIs" dxfId="77" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="78" priority="49" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:I35">
-    <cfRule type="cellIs" dxfId="76" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="77" priority="48" operator="lessThan">
       <formula>$J25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H119 J119">
-    <cfRule type="cellIs" dxfId="75" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="76" priority="47" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J119">
-    <cfRule type="cellIs" dxfId="74" priority="46" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="75" priority="46" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118 J118">
-    <cfRule type="cellIs" dxfId="73" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="74" priority="45" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J118">
-    <cfRule type="cellIs" dxfId="72" priority="44" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="73" priority="44" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 M67:N67">
-    <cfRule type="cellIs" dxfId="71" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="72" priority="24" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M66:N66 M68:N68">
-    <cfRule type="cellIs" dxfId="70" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="71" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M66:N66 M68:N68">
-    <cfRule type="cellIs" dxfId="69" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="70" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74:J76">
-    <cfRule type="cellIs" dxfId="68" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="69" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M74:N75">
-    <cfRule type="cellIs" dxfId="67" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="68" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74:J76">
-    <cfRule type="cellIs" dxfId="66" priority="23" operator="lessThan">
+    <cfRule type="cellIs" dxfId="67" priority="23" operator="lessThan">
       <formula>$J74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M76:N76">
-    <cfRule type="cellIs" dxfId="65" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="66" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K74:K76">
-    <cfRule type="cellIs" dxfId="64" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="65" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I65:I68">
-    <cfRule type="cellIs" dxfId="63" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="64" priority="11" operator="lessThan">
       <formula>$J65</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 M67:N67">
-    <cfRule type="cellIs" dxfId="62" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:K59">
-    <cfRule type="cellIs" dxfId="61" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="62" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M42:N42 M44:N44 M46:N46 M48:N48 M50:N50 M52:N52 M54:N54 M56:N56 M58:N58">
-    <cfRule type="cellIs" dxfId="60" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="61" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41:N41 M43:N43 M45:N45 M47:N47 M49:N49 M51:N51 M53:N53 M55:N55 M57:N57 M59:N59">
-    <cfRule type="cellIs" dxfId="59" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="60" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M42:N42 M44:N44 M46:N46 M48:N48 M50:N50 M52:N52 M54:N54 M56:N56 M58:N58">
-    <cfRule type="cellIs" dxfId="58" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="59" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41:N41 M43:N43 M45:N45 M47:N47 M49:N49 M51:N51 M53:N53 M55:N55 M57:N57 M59:N59">
-    <cfRule type="cellIs" dxfId="57" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="58" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41:N59">
-    <cfRule type="cellIs" dxfId="56" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:I59">
-    <cfRule type="cellIs" dxfId="55" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="56" priority="10" operator="lessThan">
       <formula>$J41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M66:N66 M68:N68">
-    <cfRule type="cellIs" dxfId="54" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="55" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 M67:N67">
-    <cfRule type="cellIs" dxfId="53" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15390,8 +15398,8 @@
   </sheetPr>
   <dimension ref="A1:AI606"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A147" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J82" sqref="J82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="25.5" customHeight="1"/>
@@ -15468,8 +15476,8 @@
     </row>
     <row r="4" spans="1:29" s="173" customFormat="1" ht="25.5" customHeight="1">
       <c r="A4" s="169"/>
-      <c r="B4" s="569"/>
-      <c r="C4" s="569"/>
+      <c r="B4" s="609"/>
+      <c r="C4" s="609"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="169"/>
@@ -15746,13 +15754,13 @@
       <c r="AC18" s="197"/>
     </row>
     <row r="19" spans="2:29" s="192" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B19" s="589" t="s">
+      <c r="B19" s="572" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="589"/>
-      <c r="D19" s="589"/>
-      <c r="E19" s="589"/>
-      <c r="F19" s="589"/>
+      <c r="C19" s="572"/>
+      <c r="D19" s="572"/>
+      <c r="E19" s="572"/>
+      <c r="F19" s="572"/>
       <c r="G19" s="199"/>
       <c r="H19" s="200"/>
       <c r="I19" s="199"/>
@@ -17924,12 +17932,12 @@
       <c r="E81" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="F81" s="572" t="s">
+      <c r="F81" s="594" t="s">
         <v>23</v>
       </c>
-      <c r="G81" s="572"/>
-      <c r="H81" s="573"/>
-      <c r="I81" s="573"/>
+      <c r="G81" s="594"/>
+      <c r="H81" s="592"/>
+      <c r="I81" s="592"/>
       <c r="J81" s="292" t="s">
         <v>24</v>
       </c>
@@ -17957,13 +17965,13 @@
         <f>F82/720</f>
         <v>1.6666666666666666E-3</v>
       </c>
-      <c r="F82" s="623">
+      <c r="F82" s="611">
         <f>VOLUME_large_SEK</f>
         <v>1.2</v>
       </c>
-      <c r="G82" s="623"/>
-      <c r="H82" s="568"/>
-      <c r="I82" s="568"/>
+      <c r="G82" s="611"/>
+      <c r="H82" s="608"/>
+      <c r="I82" s="608"/>
       <c r="J82" s="298"/>
       <c r="K82" s="555" t="s">
         <v>26</v>
@@ -17989,13 +17997,13 @@
         <f>F83/720</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F83" s="624">
+      <c r="F83" s="612">
         <f>VOLUME_fast_SEK</f>
         <v>3.6</v>
       </c>
-      <c r="G83" s="624"/>
-      <c r="H83" s="577"/>
-      <c r="I83" s="577"/>
+      <c r="G83" s="612"/>
+      <c r="H83" s="602"/>
+      <c r="I83" s="602"/>
       <c r="J83" s="302"/>
       <c r="K83" s="556" t="s">
         <v>26</v>
@@ -18130,13 +18138,13 @@
       <c r="P90" s="196"/>
     </row>
     <row r="91" spans="2:25" s="192" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B91" s="578" t="s">
+      <c r="B91" s="603" t="s">
         <v>195</v>
       </c>
-      <c r="C91" s="578"/>
-      <c r="D91" s="578"/>
-      <c r="E91" s="578"/>
-      <c r="F91" s="578"/>
+      <c r="C91" s="603"/>
+      <c r="D91" s="603"/>
+      <c r="E91" s="603"/>
+      <c r="F91" s="603"/>
       <c r="H91" s="193"/>
       <c r="J91" s="194"/>
       <c r="K91" s="194"/>
@@ -18146,13 +18154,13 @@
       <c r="P91" s="204"/>
     </row>
     <row r="92" spans="2:25" s="319" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B92" s="579" t="s">
+      <c r="B92" s="604" t="s">
         <v>110</v>
       </c>
-      <c r="C92" s="579"/>
-      <c r="D92" s="579"/>
-      <c r="E92" s="579"/>
-      <c r="F92" s="579"/>
+      <c r="C92" s="604"/>
+      <c r="D92" s="604"/>
+      <c r="E92" s="604"/>
+      <c r="F92" s="604"/>
       <c r="G92" s="313"/>
       <c r="H92" s="314"/>
       <c r="I92" s="313"/>
@@ -18211,16 +18219,16 @@
       <c r="C95" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D95" s="572" t="s">
+      <c r="D95" s="594" t="s">
         <v>71</v>
       </c>
-      <c r="E95" s="572"/>
-      <c r="F95" s="572"/>
-      <c r="G95" s="572"/>
-      <c r="H95" s="572"/>
-      <c r="I95" s="572"/>
-      <c r="J95" s="572"/>
-      <c r="K95" s="572"/>
+      <c r="E95" s="594"/>
+      <c r="F95" s="594"/>
+      <c r="G95" s="594"/>
+      <c r="H95" s="594"/>
+      <c r="I95" s="594"/>
+      <c r="J95" s="594"/>
+      <c r="K95" s="594"/>
       <c r="L95" s="293"/>
       <c r="M95" s="290"/>
       <c r="N95" s="290"/>
@@ -18236,17 +18244,17 @@
       <c r="C96" s="46" t="s">
         <v>97</v>
       </c>
-      <c r="D96" s="575">
+      <c r="D96" s="606">
         <f>S3_storage.50_SEK</f>
         <v>350</v>
       </c>
-      <c r="E96" s="575"/>
-      <c r="F96" s="575"/>
-      <c r="G96" s="575"/>
-      <c r="H96" s="575"/>
-      <c r="I96" s="575"/>
-      <c r="J96" s="575"/>
-      <c r="K96" s="575"/>
+      <c r="E96" s="606"/>
+      <c r="F96" s="606"/>
+      <c r="G96" s="606"/>
+      <c r="H96" s="606"/>
+      <c r="I96" s="606"/>
+      <c r="J96" s="606"/>
+      <c r="K96" s="606"/>
       <c r="L96" s="320"/>
       <c r="M96" s="321"/>
       <c r="N96" s="321"/>
@@ -18262,17 +18270,17 @@
       <c r="C97" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="D97" s="583">
+      <c r="D97" s="591">
         <f>S3_storage.100_SEK</f>
         <v>270</v>
       </c>
-      <c r="E97" s="583"/>
-      <c r="F97" s="583"/>
-      <c r="G97" s="583"/>
-      <c r="H97" s="583"/>
-      <c r="I97" s="583"/>
-      <c r="J97" s="583"/>
-      <c r="K97" s="583"/>
+      <c r="E97" s="591"/>
+      <c r="F97" s="591"/>
+      <c r="G97" s="591"/>
+      <c r="H97" s="591"/>
+      <c r="I97" s="591"/>
+      <c r="J97" s="591"/>
+      <c r="K97" s="591"/>
       <c r="L97" s="322"/>
       <c r="M97" s="323"/>
       <c r="N97" s="323"/>
@@ -18288,17 +18296,17 @@
       <c r="C98" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D98" s="581">
+      <c r="D98" s="600">
         <f>S3_storage.500_SEK</f>
         <v>200</v>
       </c>
-      <c r="E98" s="581"/>
-      <c r="F98" s="581"/>
-      <c r="G98" s="581"/>
-      <c r="H98" s="581"/>
-      <c r="I98" s="581"/>
-      <c r="J98" s="581"/>
-      <c r="K98" s="581"/>
+      <c r="E98" s="600"/>
+      <c r="F98" s="600"/>
+      <c r="G98" s="600"/>
+      <c r="H98" s="600"/>
+      <c r="I98" s="600"/>
+      <c r="J98" s="600"/>
+      <c r="K98" s="600"/>
       <c r="L98" s="324"/>
       <c r="M98" s="325"/>
       <c r="N98" s="325"/>
@@ -18314,17 +18322,17 @@
       <c r="C99" s="48" t="s">
         <v>119</v>
       </c>
-      <c r="D99" s="583">
+      <c r="D99" s="591">
         <f>S3_storage.1000_SEK</f>
         <v>185</v>
       </c>
-      <c r="E99" s="583"/>
-      <c r="F99" s="583"/>
-      <c r="G99" s="583"/>
-      <c r="H99" s="583"/>
-      <c r="I99" s="583"/>
-      <c r="J99" s="583"/>
-      <c r="K99" s="583"/>
+      <c r="E99" s="591"/>
+      <c r="F99" s="591"/>
+      <c r="G99" s="591"/>
+      <c r="H99" s="591"/>
+      <c r="I99" s="591"/>
+      <c r="J99" s="591"/>
+      <c r="K99" s="591"/>
       <c r="L99" s="322"/>
       <c r="M99" s="323"/>
       <c r="N99" s="323"/>
@@ -18340,17 +18348,17 @@
       <c r="C100" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="584" t="str">
+      <c r="D100" s="593" t="str">
         <f>S3_storage.quote_SEK</f>
         <v>Be om offert</v>
       </c>
-      <c r="E100" s="584"/>
-      <c r="F100" s="584"/>
-      <c r="G100" s="584"/>
-      <c r="H100" s="584"/>
-      <c r="I100" s="584"/>
-      <c r="J100" s="584"/>
-      <c r="K100" s="584"/>
+      <c r="E100" s="593"/>
+      <c r="F100" s="593"/>
+      <c r="G100" s="593"/>
+      <c r="H100" s="593"/>
+      <c r="I100" s="593"/>
+      <c r="J100" s="593"/>
+      <c r="K100" s="593"/>
       <c r="L100" s="326"/>
       <c r="M100" s="327"/>
       <c r="N100" s="327"/>
@@ -18411,10 +18419,10 @@
       <c r="E103" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="F103" s="572" t="s">
+      <c r="F103" s="594" t="s">
         <v>71</v>
       </c>
-      <c r="G103" s="572"/>
+      <c r="G103" s="594"/>
       <c r="H103" s="292" t="s">
         <v>72</v>
       </c>
@@ -18441,11 +18449,11 @@
         <f t="array" ref="E104">_xlfn.IFS(H104&lt;1001,F104/720,H104&gt;1000,D100)</f>
         <v>0.4861111111111111</v>
       </c>
-      <c r="F104" s="620" cm="1">
+      <c r="F104" s="614" cm="1">
         <f t="array" ref="F104">_xlfn.IFS(H104&lt;51,D96,H104&lt;101,D97,H104&lt;501,D98,H104&lt;1001,D99,H104&gt;1000,D100)</f>
         <v>350</v>
       </c>
-      <c r="G104" s="621"/>
+      <c r="G104" s="615"/>
       <c r="H104" s="330"/>
       <c r="I104" s="557" t="s">
         <v>73</v>
@@ -18591,13 +18599,13 @@
       <c r="P111" s="196"/>
     </row>
     <row r="112" spans="2:24" s="192" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B112" s="587" t="s">
+      <c r="B112" s="597" t="s">
         <v>300</v>
       </c>
-      <c r="C112" s="587"/>
-      <c r="D112" s="587"/>
-      <c r="E112" s="587"/>
-      <c r="F112" s="587"/>
+      <c r="C112" s="597"/>
+      <c r="D112" s="597"/>
+      <c r="E112" s="597"/>
+      <c r="F112" s="597"/>
       <c r="H112" s="193"/>
       <c r="J112" s="194"/>
       <c r="K112" s="194"/>
@@ -18607,13 +18615,13 @@
       <c r="P112" s="204"/>
     </row>
     <row r="113" spans="1:35" s="192" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B113" s="589" t="s">
+      <c r="B113" s="572" t="s">
         <v>28</v>
       </c>
-      <c r="C113" s="589"/>
-      <c r="D113" s="589"/>
-      <c r="E113" s="589"/>
-      <c r="F113" s="589"/>
+      <c r="C113" s="572"/>
+      <c r="D113" s="572"/>
+      <c r="E113" s="572"/>
+      <c r="F113" s="572"/>
       <c r="G113" s="199"/>
       <c r="H113" s="200"/>
       <c r="I113" s="199"/>
@@ -18683,25 +18691,25 @@
       <c r="B116" s="518" t="s">
         <v>79</v>
       </c>
-      <c r="C116" s="572" t="s">
+      <c r="C116" s="594" t="s">
         <v>34</v>
       </c>
-      <c r="D116" s="572"/>
+      <c r="D116" s="594"/>
       <c r="E116" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="F116" s="572" t="s">
+      <c r="F116" s="594" t="s">
         <v>23</v>
       </c>
-      <c r="G116" s="572"/>
+      <c r="G116" s="594"/>
       <c r="H116" s="292" t="s">
         <v>30</v>
       </c>
       <c r="I116" s="290"/>
-      <c r="J116" s="573" t="s">
+      <c r="J116" s="592" t="s">
         <v>35</v>
       </c>
-      <c r="K116" s="573"/>
+      <c r="K116" s="592"/>
       <c r="L116" s="291"/>
       <c r="M116" s="290"/>
       <c r="N116" s="293" t="s">
@@ -18722,19 +18730,19 @@
       <c r="E117" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F117" s="613">
+      <c r="F117" s="619">
         <f>BAAS_on.demand_SEK</f>
         <v>2.4500000000000002</v>
       </c>
-      <c r="G117" s="614"/>
+      <c r="G117" s="620"/>
       <c r="H117" s="342"/>
       <c r="I117" s="555" t="s">
         <v>26</v>
       </c>
-      <c r="J117" s="593" t="s">
+      <c r="J117" s="579" t="s">
         <v>25</v>
       </c>
-      <c r="K117" s="593"/>
+      <c r="K117" s="579"/>
       <c r="L117" s="343"/>
       <c r="M117" s="299"/>
       <c r="N117" s="301">
@@ -18756,19 +18764,19 @@
       <c r="E118" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="F118" s="616">
+      <c r="F118" s="622">
         <f>BAAS_small_SEK</f>
         <v>1.75</v>
       </c>
-      <c r="G118" s="617"/>
+      <c r="G118" s="623"/>
       <c r="H118" s="344"/>
       <c r="I118" s="556" t="s">
         <v>26</v>
       </c>
-      <c r="J118" s="597">
+      <c r="J118" s="583">
         <v>0.75</v>
       </c>
-      <c r="K118" s="598"/>
+      <c r="K118" s="584"/>
       <c r="L118" s="303"/>
       <c r="M118" s="303"/>
       <c r="N118" s="305">
@@ -18790,19 +18798,19 @@
       <c r="E119" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="F119" s="618">
+      <c r="F119" s="624">
         <f>BAAS_large_SEK</f>
         <v>0.92</v>
       </c>
-      <c r="G119" s="619"/>
+      <c r="G119" s="625"/>
       <c r="H119" s="330"/>
       <c r="I119" s="557" t="s">
         <v>26</v>
       </c>
-      <c r="J119" s="602">
+      <c r="J119" s="588">
         <v>0.75</v>
       </c>
-      <c r="K119" s="603"/>
+      <c r="K119" s="589"/>
       <c r="L119" s="331"/>
       <c r="M119" s="331"/>
       <c r="N119" s="334">
@@ -19117,13 +19125,13 @@
       <c r="P132" s="225"/>
     </row>
     <row r="133" spans="2:22" s="192" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B133" s="589" t="s">
+      <c r="B133" s="572" t="s">
         <v>28</v>
       </c>
-      <c r="C133" s="589"/>
-      <c r="D133" s="589"/>
-      <c r="E133" s="589"/>
-      <c r="F133" s="589"/>
+      <c r="C133" s="572"/>
+      <c r="D133" s="572"/>
+      <c r="E133" s="572"/>
+      <c r="F133" s="572"/>
       <c r="H133" s="193"/>
       <c r="J133" s="194"/>
       <c r="K133" s="194"/>
@@ -19133,11 +19141,11 @@
       <c r="P133" s="225"/>
     </row>
     <row r="134" spans="2:22" s="192" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B134" s="589"/>
-      <c r="C134" s="589"/>
-      <c r="D134" s="589"/>
-      <c r="E134" s="589"/>
-      <c r="F134" s="589"/>
+      <c r="B134" s="572"/>
+      <c r="C134" s="572"/>
+      <c r="D134" s="572"/>
+      <c r="E134" s="572"/>
+      <c r="F134" s="572"/>
       <c r="G134" s="199"/>
       <c r="H134" s="200"/>
       <c r="I134" s="199"/>
@@ -19880,11 +19888,11 @@
       <c r="J161" s="353"/>
       <c r="K161" s="353"/>
       <c r="L161" s="354"/>
-      <c r="M161" s="615">
+      <c r="M161" s="621">
         <f>PAAS_man.kubernetes_SEK</f>
         <v>49000</v>
       </c>
-      <c r="N161" s="615"/>
+      <c r="N161" s="621"/>
       <c r="O161" s="173"/>
       <c r="P161" s="225"/>
       <c r="Q161" s="173"/>
@@ -19908,11 +19916,11 @@
       <c r="J162" s="357"/>
       <c r="K162" s="357"/>
       <c r="L162" s="358"/>
-      <c r="M162" s="610">
+      <c r="M162" s="616">
         <f>PAAS_man.postgres.sql_SEK</f>
         <v>19500</v>
       </c>
-      <c r="N162" s="610"/>
+      <c r="N162" s="616"/>
       <c r="O162" s="173"/>
       <c r="P162" s="225"/>
       <c r="Q162" s="173"/>
@@ -19936,11 +19944,11 @@
       <c r="J163" s="353"/>
       <c r="K163" s="353"/>
       <c r="L163" s="354"/>
-      <c r="M163" s="611">
+      <c r="M163" s="617">
         <f>PAAS_man.elasticsearch_SEK</f>
         <v>19500</v>
       </c>
-      <c r="N163" s="611"/>
+      <c r="N163" s="617"/>
       <c r="O163" s="173"/>
       <c r="P163" s="225"/>
       <c r="Q163" s="173"/>
@@ -19964,11 +19972,11 @@
       <c r="J164" s="357"/>
       <c r="K164" s="357"/>
       <c r="L164" s="358"/>
-      <c r="M164" s="610">
+      <c r="M164" s="616">
         <f>PAAS_man.redis_SEK</f>
         <v>19000</v>
       </c>
-      <c r="N164" s="610"/>
+      <c r="N164" s="616"/>
       <c r="O164" s="173"/>
       <c r="P164" s="225"/>
       <c r="Q164" s="173"/>
@@ -19992,11 +20000,11 @@
       <c r="J165" s="353"/>
       <c r="K165" s="353"/>
       <c r="L165" s="354"/>
-      <c r="M165" s="611">
+      <c r="M165" s="617">
         <f>PAAS_man.nats_SEK</f>
         <v>19500</v>
       </c>
-      <c r="N165" s="611"/>
+      <c r="N165" s="617"/>
       <c r="O165" s="173"/>
       <c r="P165" s="225"/>
       <c r="Q165" s="173"/>
@@ -20020,11 +20028,11 @@
       <c r="J166" s="357"/>
       <c r="K166" s="357"/>
       <c r="L166" s="358"/>
-      <c r="M166" s="612">
+      <c r="M166" s="618">
         <f>PAAS_man.mariadb_SEK</f>
         <v>19500</v>
       </c>
-      <c r="N166" s="612"/>
+      <c r="N166" s="618"/>
       <c r="O166" s="173"/>
       <c r="P166" s="225"/>
       <c r="Q166" s="173"/>
@@ -20133,13 +20141,13 @@
       <c r="P172" s="225"/>
     </row>
     <row r="173" spans="2:23" s="192" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B173" s="589" t="s">
+      <c r="B173" s="572" t="s">
         <v>28</v>
       </c>
-      <c r="C173" s="589"/>
-      <c r="D173" s="589"/>
-      <c r="E173" s="589"/>
-      <c r="F173" s="589"/>
+      <c r="C173" s="572"/>
+      <c r="D173" s="572"/>
+      <c r="E173" s="572"/>
+      <c r="F173" s="572"/>
       <c r="H173" s="379"/>
       <c r="J173" s="194"/>
       <c r="K173" s="194"/>
@@ -20149,11 +20157,11 @@
       <c r="P173" s="225"/>
     </row>
     <row r="174" spans="2:23" s="192" customFormat="1" ht="25.5" customHeight="1">
-      <c r="B174" s="589"/>
-      <c r="C174" s="589"/>
-      <c r="D174" s="589"/>
-      <c r="E174" s="589"/>
-      <c r="F174" s="589"/>
+      <c r="B174" s="572"/>
+      <c r="C174" s="572"/>
+      <c r="D174" s="572"/>
+      <c r="E174" s="572"/>
+      <c r="F174" s="572"/>
       <c r="G174" s="199"/>
       <c r="H174" s="200"/>
       <c r="I174" s="199"/>
@@ -20954,14 +20962,14 @@
     </row>
     <row r="205" spans="1:23" s="192" customFormat="1" ht="25.5" customHeight="1">
       <c r="A205" s="174"/>
-      <c r="B205" s="607" t="s">
+      <c r="B205" s="573" t="s">
         <v>42</v>
       </c>
-      <c r="C205" s="607"/>
-      <c r="D205" s="607"/>
-      <c r="E205" s="607"/>
-      <c r="F205" s="607"/>
-      <c r="G205" s="607"/>
+      <c r="C205" s="573"/>
+      <c r="D205" s="573"/>
+      <c r="E205" s="573"/>
+      <c r="F205" s="573"/>
+      <c r="G205" s="573"/>
       <c r="H205" s="177"/>
       <c r="I205" s="174"/>
       <c r="J205" s="178"/>
@@ -20974,12 +20982,12 @@
     </row>
     <row r="206" spans="1:23" s="192" customFormat="1" ht="25.5" customHeight="1">
       <c r="A206" s="174"/>
-      <c r="B206" s="607"/>
-      <c r="C206" s="607"/>
-      <c r="D206" s="607"/>
-      <c r="E206" s="607"/>
-      <c r="F206" s="607"/>
-      <c r="G206" s="607"/>
+      <c r="B206" s="573"/>
+      <c r="C206" s="573"/>
+      <c r="D206" s="573"/>
+      <c r="E206" s="573"/>
+      <c r="F206" s="573"/>
+      <c r="G206" s="573"/>
       <c r="H206" s="177"/>
       <c r="I206" s="174"/>
       <c r="J206" s="178"/>
@@ -20992,12 +21000,12 @@
     </row>
     <row r="207" spans="1:23" s="192" customFormat="1" ht="25.5" customHeight="1">
       <c r="A207" s="174"/>
-      <c r="B207" s="607"/>
-      <c r="C207" s="607"/>
-      <c r="D207" s="607"/>
-      <c r="E207" s="607"/>
-      <c r="F207" s="607"/>
-      <c r="G207" s="607"/>
+      <c r="B207" s="573"/>
+      <c r="C207" s="573"/>
+      <c r="D207" s="573"/>
+      <c r="E207" s="573"/>
+      <c r="F207" s="573"/>
+      <c r="G207" s="573"/>
       <c r="H207" s="177"/>
       <c r="I207" s="174"/>
       <c r="J207" s="178"/>
@@ -21010,13 +21018,13 @@
     </row>
     <row r="208" spans="1:23" s="192" customFormat="1" ht="25.5" customHeight="1">
       <c r="A208" s="174"/>
-      <c r="B208" s="622" t="s">
+      <c r="B208" s="613" t="s">
         <v>28</v>
       </c>
-      <c r="C208" s="622"/>
-      <c r="D208" s="622"/>
-      <c r="E208" s="622"/>
-      <c r="F208" s="622"/>
+      <c r="C208" s="613"/>
+      <c r="D208" s="613"/>
+      <c r="E208" s="613"/>
+      <c r="F208" s="613"/>
       <c r="G208" s="174"/>
       <c r="H208" s="177"/>
       <c r="I208" s="174"/>
@@ -21156,10 +21164,10 @@
     </row>
     <row r="215" spans="1:23" ht="25.5" customHeight="1">
       <c r="A215" s="404"/>
-      <c r="B215" s="609" t="s">
+      <c r="B215" s="575" t="s">
         <v>43</v>
       </c>
-      <c r="C215" s="609"/>
+      <c r="C215" s="575"/>
       <c r="D215" s="72"/>
       <c r="E215" s="73"/>
       <c r="F215" s="409"/>
@@ -21180,10 +21188,10 @@
     </row>
     <row r="216" spans="1:23" ht="25.5" customHeight="1">
       <c r="A216" s="404"/>
-      <c r="B216" s="604" t="s">
+      <c r="B216" s="567" t="s">
         <v>44</v>
       </c>
-      <c r="C216" s="604"/>
+      <c r="C216" s="567"/>
       <c r="D216" s="74"/>
       <c r="E216" s="75"/>
       <c r="F216" s="413"/>
@@ -21228,10 +21236,10 @@
     </row>
     <row r="218" spans="1:23" s="420" customFormat="1" ht="25.5" customHeight="1">
       <c r="A218" s="417"/>
-      <c r="B218" s="605" t="s">
+      <c r="B218" s="568" t="s">
         <v>46</v>
       </c>
-      <c r="C218" s="605"/>
+      <c r="C218" s="568"/>
       <c r="D218" s="35"/>
       <c r="E218" s="36"/>
       <c r="F218" s="346"/>
@@ -21261,13 +21269,13 @@
       <c r="G219" s="422"/>
       <c r="H219" s="422"/>
       <c r="I219" s="422"/>
-      <c r="J219" s="625">
+      <c r="J219" s="610">
         <f>SUM(M215:M218)</f>
         <v>0</v>
       </c>
-      <c r="K219" s="625"/>
-      <c r="L219" s="625"/>
-      <c r="M219" s="625"/>
+      <c r="K219" s="610"/>
+      <c r="L219" s="610"/>
+      <c r="M219" s="610"/>
       <c r="N219" s="423"/>
       <c r="O219" s="404"/>
       <c r="P219" s="211"/>
@@ -25008,17 +25016,51 @@
       <c r="O606" s="449"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="GGzyNQ2dAOXY1ofJwdGio7JT/GAC9z+7OgYpLZKe+EGsEP7GXjX+L1nuvDwQ3cPlQy9stT7qI6ri0EifS9JzOQ==" saltValue="IBWxwzcx/wJ1RsBXVrp96w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="q4j50/8Ueedm5fB+l4mbiuP0e8Er3DP9cNsiC6YE0N2PDRuB9J3MMHT53JAMVfsYIVSGWkEkk1SnlxR4Omz9Fg==" saltValue="/eruHUfvkIHZl91Mqz+Lig==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="68">
-    <mergeCell ref="J99:K99"/>
-    <mergeCell ref="H100:I100"/>
-    <mergeCell ref="J100:K100"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="M164:N164"/>
+    <mergeCell ref="M165:N165"/>
+    <mergeCell ref="M166:N166"/>
+    <mergeCell ref="J117:K117"/>
+    <mergeCell ref="F117:G117"/>
+    <mergeCell ref="M161:N161"/>
+    <mergeCell ref="M162:N162"/>
+    <mergeCell ref="M163:N163"/>
+    <mergeCell ref="F118:G118"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="F119:G119"/>
+    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="B88:G90"/>
+    <mergeCell ref="B91:F91"/>
+    <mergeCell ref="B92:F92"/>
+    <mergeCell ref="B109:G111"/>
+    <mergeCell ref="B112:F112"/>
+    <mergeCell ref="F103:G103"/>
+    <mergeCell ref="F104:G104"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="B218:C218"/>
+    <mergeCell ref="B113:F113"/>
+    <mergeCell ref="B205:G207"/>
+    <mergeCell ref="B208:F208"/>
+    <mergeCell ref="B215:C215"/>
+    <mergeCell ref="B216:C216"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="B133:F133"/>
+    <mergeCell ref="B130:G132"/>
+    <mergeCell ref="B134:F134"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="B170:G172"/>
+    <mergeCell ref="B173:F173"/>
+    <mergeCell ref="B174:F174"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="B15:G17"/>
+    <mergeCell ref="B19:F19"/>
     <mergeCell ref="J219:M219"/>
     <mergeCell ref="D95:E95"/>
     <mergeCell ref="D96:E96"/>
@@ -25035,194 +25077,165 @@
     <mergeCell ref="H96:I96"/>
     <mergeCell ref="H95:I95"/>
     <mergeCell ref="J116:K116"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="B15:G17"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B218:C218"/>
-    <mergeCell ref="B113:F113"/>
-    <mergeCell ref="B205:G207"/>
-    <mergeCell ref="B208:F208"/>
-    <mergeCell ref="B215:C215"/>
-    <mergeCell ref="B216:C216"/>
-    <mergeCell ref="F116:G116"/>
-    <mergeCell ref="B133:F133"/>
-    <mergeCell ref="B130:G132"/>
-    <mergeCell ref="B134:F134"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="B170:G172"/>
-    <mergeCell ref="B173:F173"/>
-    <mergeCell ref="B174:F174"/>
-    <mergeCell ref="B88:G90"/>
-    <mergeCell ref="B91:F91"/>
-    <mergeCell ref="B92:F92"/>
-    <mergeCell ref="B109:G111"/>
-    <mergeCell ref="B112:F112"/>
-    <mergeCell ref="F103:G103"/>
-    <mergeCell ref="F104:G104"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="M164:N164"/>
-    <mergeCell ref="M165:N165"/>
-    <mergeCell ref="M166:N166"/>
-    <mergeCell ref="J117:K117"/>
-    <mergeCell ref="F117:G117"/>
-    <mergeCell ref="M161:N161"/>
-    <mergeCell ref="M162:N162"/>
-    <mergeCell ref="M163:N163"/>
-    <mergeCell ref="F118:G118"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="F119:G119"/>
-    <mergeCell ref="J118:K118"/>
+    <mergeCell ref="J99:K99"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="J100:K100"/>
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="H98:I98"/>
+    <mergeCell ref="J98:K98"/>
+    <mergeCell ref="H97:I97"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="M25:N35 M61:N63 M39:N39">
-    <cfRule type="cellIs" dxfId="52" priority="93" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="29" priority="95" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H117 H104 J82:J83 I25:K35 I65:K68">
-    <cfRule type="cellIs" dxfId="51" priority="92" operator="greaterThan">
+  <conditionalFormatting sqref="H117 H104 J82:J83 I25:K35 J65:K68">
+    <cfRule type="cellIs" dxfId="28" priority="94" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J83">
-    <cfRule type="cellIs" dxfId="50" priority="91" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="27" priority="93" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J82">
-    <cfRule type="cellIs" dxfId="49" priority="90" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="26" priority="92" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H104">
-    <cfRule type="cellIs" dxfId="48" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="25" priority="89" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I25:I35">
-    <cfRule type="cellIs" dxfId="47" priority="73" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="75" operator="lessThan">
       <formula>$J25</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H119 J119">
-    <cfRule type="cellIs" dxfId="46" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="23" priority="67" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J119">
-    <cfRule type="cellIs" dxfId="45" priority="64" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="22" priority="66" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118 J118">
-    <cfRule type="cellIs" dxfId="44" priority="63" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="65" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J118">
-    <cfRule type="cellIs" dxfId="43" priority="62" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="64" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 M67:N67">
-    <cfRule type="cellIs" dxfId="42" priority="31" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I65:K68">
-    <cfRule type="cellIs" dxfId="41" priority="42" operator="lessThan">
-      <formula>$J65</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M66:N66 M68:N68">
-    <cfRule type="cellIs" dxfId="40" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="19" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M66:N66 M68:N68">
-    <cfRule type="cellIs" dxfId="39" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="39" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M66:N66 M68:N68">
+    <cfRule type="cellIs" dxfId="17" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74:J76">
-    <cfRule type="cellIs" dxfId="38" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="25" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M74:N75">
-    <cfRule type="cellIs" dxfId="37" priority="24" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="15" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I74:J76">
-    <cfRule type="cellIs" dxfId="36" priority="25" operator="lessThan">
+    <cfRule type="cellIs" dxfId="14" priority="27" operator="lessThan">
       <formula>$J74</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M76:N76">
-    <cfRule type="cellIs" dxfId="35" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K74:K76">
-    <cfRule type="cellIs" dxfId="34" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="12" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M42:N42 M44:N44 M46:N46 M48:N48 M50:N50 M52:N52 M54:N54 M56:N56 M58:N58">
-    <cfRule type="cellIs" dxfId="33" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 M67:N67">
-    <cfRule type="cellIs" dxfId="32" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:K59">
-    <cfRule type="cellIs" dxfId="31" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="9" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41:N41 M43:N43 M45:N45 M47:N47 M49:N49 M51:N51 M53:N53 M55:N55 M57:N57 M59:N59">
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M42:N42 M44:N44 M46:N46 M48:N48 M50:N50 M52:N52 M54:N54 M56:N56 M58:N58">
-    <cfRule type="cellIs" dxfId="29" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M41:N41 M43:N43 M45:N45 M47:N47 M49:N49 M51:N51 M53:N53 M55:N55 M57:N57 M59:N59">
-    <cfRule type="cellIs" dxfId="28" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N41:N59">
-    <cfRule type="cellIs" dxfId="27" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I41:I59">
-    <cfRule type="cellIs" dxfId="26" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="12" operator="lessThan">
       <formula>$J41</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M66:N66 M68:N68">
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M65:N65 M67:N67">
-    <cfRule type="cellIs" dxfId="24" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65:I68">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I65:I68">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+      <formula>$J65</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -26565,122 +26578,122 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J9">
-    <cfRule type="cellIs" dxfId="23" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="53" priority="35" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10">
-    <cfRule type="cellIs" dxfId="22" priority="36" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="52" priority="36" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34 D36 D38 D40">
-    <cfRule type="cellIs" dxfId="21" priority="34" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="51" priority="34" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35 D37 D39">
-    <cfRule type="cellIs" dxfId="20" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="50" priority="33" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D41">
-    <cfRule type="cellIs" dxfId="19" priority="32" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="49" priority="32" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16">
-    <cfRule type="cellIs" dxfId="18" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="48" priority="23" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="cellIs" dxfId="17" priority="22" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="47" priority="22" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3 D5 D7:D8">
-    <cfRule type="cellIs" dxfId="16" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="46" priority="27" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4 D6">
-    <cfRule type="cellIs" dxfId="15" priority="26" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="45" priority="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D56 D58">
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="44" priority="16" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24">
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="43" priority="15" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53 D55 D57">
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="42" priority="17" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="cellIs" dxfId="11" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="41" priority="13" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20">
-    <cfRule type="cellIs" dxfId="10" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="40" priority="21" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23">
-    <cfRule type="cellIs" dxfId="9" priority="20" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="39" priority="20" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44 D46 D48 D50">
-    <cfRule type="cellIs" dxfId="8" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="38" priority="19" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D45 D47 D49">
-    <cfRule type="cellIs" dxfId="7" priority="18" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="37" priority="18" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27 D29 D31">
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="36" priority="12" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28 D30">
-    <cfRule type="cellIs" dxfId="5" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="35" priority="11" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21">
-    <cfRule type="cellIs" dxfId="3" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="33" priority="7" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62 D64 D66">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61 D63 D65">
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="31" priority="5" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D54">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="30" priority="1" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26689,12 +26702,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001C43B81DAFEB6E48968C393326E48C35" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe80addda3785a17401e59b183cfbdd3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b02d781b-7fa0-453e-8cce-8f68a10659e7" xmlns:ns3="c4dd6bfd-0b07-4feb-8f84-e45213ea2541" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="74fc3b54b085f200e42a327aeed12e42" ns2:_="" ns3:_="">
     <xsd:import namespace="b02d781b-7fa0-453e-8cce-8f68a10659e7"/>
@@ -26911,6 +26918,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -26921,23 +26934,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{198DA55C-3E04-43BC-9C10-F76F453885EF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="b02d781b-7fa0-453e-8cce-8f68a10659e7"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="c4dd6bfd-0b07-4feb-8f84-e45213ea2541"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{76446A94-B4DE-4E1C-B95E-28564883A9A0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -26956,6 +26952,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{198DA55C-3E04-43BC-9C10-F76F453885EF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="b02d781b-7fa0-453e-8cce-8f68a10659e7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="c4dd6bfd-0b07-4feb-8f84-e45213ea2541"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{64C46745-0CBD-4C75-8F94-6E13A1C2423A}">
   <ds:schemaRefs>
